--- a/COMBINE FILE/FORWARDED FOR PRINTING -- BASHIR.xlsx
+++ b/COMBINE FILE/FORWARDED FOR PRINTING -- BASHIR.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\bashir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bashir102\COMBINE FILE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB989905-F42F-4BCC-8462-2106EC2A40ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0248C8-1AF2-44B1-B2D1-4F6F068ED409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7TH" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7TH'!$E$1:$E$625</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7TH'!$A$1:$M$621</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'7TH'!$A$1:$M$618</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'7TH'!$1:$1</definedName>
   </definedNames>
@@ -7495,7 +7495,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -7547,7 +7547,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -7751,27 +7751,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M625"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A500" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="6.88671875" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="28" customWidth="1"/>
-    <col min="7" max="7" width="24.5546875" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" customWidth="1"/>
-    <col min="10" max="10" width="38.109375" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" customWidth="1"/>
-    <col min="12" max="13" width="13.6640625" customWidth="1"/>
+    <col min="1" max="2" width="6.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="28" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="38.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="12" max="13" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>2378</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1292</v>
       </c>
@@ -7851,7 +7851,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1293</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1294</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1295</v>
       </c>
@@ -7968,7 +7968,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>1296</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>1297</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>1298</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1299</v>
       </c>
@@ -8124,7 +8124,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>1300</v>
       </c>
@@ -8163,7 +8163,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>1301</v>
       </c>
@@ -8202,7 +8202,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>1302</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>1303</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>1304</v>
       </c>
@@ -8319,7 +8319,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>1305</v>
       </c>
@@ -8358,7 +8358,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>1306</v>
       </c>
@@ -8397,7 +8397,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>1307</v>
       </c>
@@ -8436,7 +8436,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>1308</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>1309</v>
       </c>
@@ -8514,7 +8514,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>1310</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>1311</v>
       </c>
@@ -8590,7 +8590,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>1312</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>1313</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>1314</v>
       </c>
@@ -8705,7 +8705,7 @@
       </c>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>1315</v>
       </c>
@@ -8744,7 +8744,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>1316</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>1317</v>
       </c>
@@ -8820,7 +8820,7 @@
       </c>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>1318</v>
       </c>
@@ -8859,7 +8859,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>1319</v>
       </c>
@@ -8898,7 +8898,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>1320</v>
       </c>
@@ -8935,7 +8935,7 @@
       </c>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>1321</v>
       </c>
@@ -8974,7 +8974,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>1322</v>
       </c>
@@ -9013,7 +9013,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>1323</v>
       </c>
@@ -9052,7 +9052,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>1324</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>1325</v>
       </c>
@@ -9128,7 +9128,7 @@
       </c>
       <c r="M35" s="6"/>
     </row>
-    <row r="36" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>1326</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>1327</v>
       </c>
@@ -9206,7 +9206,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>1328</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>1329</v>
       </c>
@@ -9284,7 +9284,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>1330</v>
       </c>
@@ -9323,7 +9323,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>1331</v>
       </c>
@@ -9362,7 +9362,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>1332</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>1333</v>
       </c>
@@ -9438,7 +9438,7 @@
       </c>
       <c r="M43" s="6"/>
     </row>
-    <row r="44" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>1334</v>
       </c>
@@ -9477,7 +9477,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>1335</v>
       </c>
@@ -9516,7 +9516,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>1336</v>
       </c>
@@ -9553,7 +9553,7 @@
       </c>
       <c r="M46" s="6"/>
     </row>
-    <row r="47" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>1337</v>
       </c>
@@ -9592,7 +9592,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>1338</v>
       </c>
@@ -9631,7 +9631,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>1339</v>
       </c>
@@ -9670,7 +9670,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>1340</v>
       </c>
@@ -9709,7 +9709,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>1341</v>
       </c>
@@ -9748,7 +9748,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>1342</v>
       </c>
@@ -9787,7 +9787,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>1343</v>
       </c>
@@ -9826,7 +9826,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>1344</v>
       </c>
@@ -9865,7 +9865,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>1345</v>
       </c>
@@ -9904,7 +9904,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>1346</v>
       </c>
@@ -9943,7 +9943,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>1347</v>
       </c>
@@ -9982,7 +9982,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>1348</v>
       </c>
@@ -10021,7 +10021,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>1349</v>
       </c>
@@ -10058,7 +10058,7 @@
       </c>
       <c r="M59" s="6"/>
     </row>
-    <row r="60" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>1350</v>
       </c>
@@ -10097,7 +10097,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>1351</v>
       </c>
@@ -10136,7 +10136,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="62" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>1352</v>
       </c>
@@ -10175,7 +10175,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="63" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>1353</v>
       </c>
@@ -10214,7 +10214,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>1354</v>
       </c>
@@ -10253,7 +10253,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="65" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>1355</v>
       </c>
@@ -10292,7 +10292,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="66" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>1356</v>
       </c>
@@ -10331,7 +10331,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>1357</v>
       </c>
@@ -10370,7 +10370,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="68" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>1358</v>
       </c>
@@ -10409,7 +10409,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="69" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>1359</v>
       </c>
@@ -10448,7 +10448,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="70" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>1360</v>
       </c>
@@ -10487,7 +10487,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="71" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>1361</v>
       </c>
@@ -10526,7 +10526,7 @@
         <v>3137694661</v>
       </c>
     </row>
-    <row r="72" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>1362</v>
       </c>
@@ -10565,7 +10565,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="73" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>1363</v>
       </c>
@@ -10604,7 +10604,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="74" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>1364</v>
       </c>
@@ -10643,7 +10643,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="75" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>1365</v>
       </c>
@@ -10682,7 +10682,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="76" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>1366</v>
       </c>
@@ -10721,7 +10721,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="77" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>1367</v>
       </c>
@@ -10760,7 +10760,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="78" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>1368</v>
       </c>
@@ -10799,7 +10799,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="79" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>1369</v>
       </c>
@@ -10838,7 +10838,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="80" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>1370</v>
       </c>
@@ -10877,7 +10877,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="81" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>1371</v>
       </c>
@@ -10916,7 +10916,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="82" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>1372</v>
       </c>
@@ -10955,7 +10955,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="83" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>1373</v>
       </c>
@@ -10994,7 +10994,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="84" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>1374</v>
       </c>
@@ -11035,7 +11035,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="85" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>1375</v>
       </c>
@@ -11076,7 +11076,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="86" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>1376</v>
       </c>
@@ -11117,7 +11117,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="87" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>1377</v>
       </c>
@@ -11158,7 +11158,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="88" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>1378</v>
       </c>
@@ -11197,7 +11197,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="89" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>1379</v>
       </c>
@@ -11238,7 +11238,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="90" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>1380</v>
       </c>
@@ -11279,7 +11279,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="91" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>1381</v>
       </c>
@@ -11320,7 +11320,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="92" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>1382</v>
       </c>
@@ -11359,7 +11359,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="93" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>1383</v>
       </c>
@@ -11400,7 +11400,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="94" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>1384</v>
       </c>
@@ -11441,7 +11441,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="95" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>1385</v>
       </c>
@@ -11482,7 +11482,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="96" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>1386</v>
       </c>
@@ -11523,7 +11523,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="97" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>1387</v>
       </c>
@@ -11562,7 +11562,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="98" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>1388</v>
       </c>
@@ -11603,7 +11603,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="99" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>1389</v>
       </c>
@@ -11644,7 +11644,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="100" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>1390</v>
       </c>
@@ -11683,7 +11683,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="101" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>1391</v>
       </c>
@@ -11724,7 +11724,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="102" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>1392</v>
       </c>
@@ -11765,7 +11765,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="103" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>1393</v>
       </c>
@@ -11806,7 +11806,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="104" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>1394</v>
       </c>
@@ -11845,7 +11845,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="105" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>1395</v>
       </c>
@@ -11886,7 +11886,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="106" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>1396</v>
       </c>
@@ -11927,7 +11927,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="107" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>1397</v>
       </c>
@@ -11968,7 +11968,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="108" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>1398</v>
       </c>
@@ -11999,7 +11999,7 @@
       <c r="L108" s="6"/>
       <c r="M108" s="6"/>
     </row>
-    <row r="109" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>1399</v>
       </c>
@@ -12038,7 +12038,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="110" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>1400</v>
       </c>
@@ -12077,7 +12077,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="111" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>1401</v>
       </c>
@@ -12116,7 +12116,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="112" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>1402</v>
       </c>
@@ -12155,7 +12155,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="113" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>1403</v>
       </c>
@@ -12194,7 +12194,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="114" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>1404</v>
       </c>
@@ -12233,7 +12233,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="115" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>1405</v>
       </c>
@@ -12272,7 +12272,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="116" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>1406</v>
       </c>
@@ -12311,7 +12311,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="117" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>1407</v>
       </c>
@@ -12350,7 +12350,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="118" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>1408</v>
       </c>
@@ -12389,7 +12389,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="119" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>1409</v>
       </c>
@@ -12428,7 +12428,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="120" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>1410</v>
       </c>
@@ -12465,7 +12465,7 @@
       </c>
       <c r="M120" s="6"/>
     </row>
-    <row r="121" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>1411</v>
       </c>
@@ -12504,7 +12504,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="122" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
         <v>1412</v>
       </c>
@@ -12543,7 +12543,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="123" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
         <v>1413</v>
       </c>
@@ -12582,7 +12582,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="124" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
         <v>1414</v>
       </c>
@@ -12621,7 +12621,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="125" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
         <v>1415</v>
       </c>
@@ -12660,7 +12660,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="126" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
         <v>1416</v>
       </c>
@@ -12699,7 +12699,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="127" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
         <v>1417</v>
       </c>
@@ -12738,7 +12738,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="128" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
         <v>1418</v>
       </c>
@@ -12777,7 +12777,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="129" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
         <v>1419</v>
       </c>
@@ -12816,7 +12816,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="130" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
         <v>1420</v>
       </c>
@@ -12855,7 +12855,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="131" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
         <v>1421</v>
       </c>
@@ -12894,7 +12894,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="132" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
         <v>1422</v>
       </c>
@@ -12933,7 +12933,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="133" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
         <v>1423</v>
       </c>
@@ -12972,7 +12972,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="134" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
         <v>1424</v>
       </c>
@@ -13011,7 +13011,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="135" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
         <v>1425</v>
       </c>
@@ -13042,7 +13042,7 @@
       <c r="L135" s="6"/>
       <c r="M135" s="6"/>
     </row>
-    <row r="136" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
         <v>1426</v>
       </c>
@@ -13081,7 +13081,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="137" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
         <v>1427</v>
       </c>
@@ -13120,7 +13120,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="138" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
         <v>1428</v>
       </c>
@@ -13159,7 +13159,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="139" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
         <v>1429</v>
       </c>
@@ -13198,7 +13198,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="140" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
         <v>1430</v>
       </c>
@@ -13237,7 +13237,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="141" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
         <v>1431</v>
       </c>
@@ -13276,7 +13276,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="142" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
         <v>1432</v>
       </c>
@@ -13315,7 +13315,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="143" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
         <v>1433</v>
       </c>
@@ -13354,7 +13354,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="144" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
         <v>1434</v>
       </c>
@@ -13393,7 +13393,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="145" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
         <v>1435</v>
       </c>
@@ -13432,7 +13432,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="146" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
         <v>1436</v>
       </c>
@@ -13471,7 +13471,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="147" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
         <v>1437</v>
       </c>
@@ -13510,7 +13510,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="148" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
         <v>1438</v>
       </c>
@@ -13549,7 +13549,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="149" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
         <v>1439</v>
       </c>
@@ -13588,7 +13588,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="150" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
         <v>1440</v>
       </c>
@@ -13627,7 +13627,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="151" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
         <v>1441</v>
       </c>
@@ -13666,7 +13666,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="152" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
         <v>1442</v>
       </c>
@@ -13705,7 +13705,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="153" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
         <v>1443</v>
       </c>
@@ -13744,7 +13744,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="154" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="4">
         <v>1444</v>
       </c>
@@ -13783,7 +13783,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="155" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
         <v>1445</v>
       </c>
@@ -13822,7 +13822,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="156" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
         <v>1446</v>
       </c>
@@ -13861,7 +13861,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="157" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
         <v>1447</v>
       </c>
@@ -13900,7 +13900,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="158" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="4">
         <v>1448</v>
       </c>
@@ -13939,7 +13939,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="159" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="4">
         <v>1449</v>
       </c>
@@ -13978,7 +13978,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="160" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="4">
         <v>1450</v>
       </c>
@@ -14017,7 +14017,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="161" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="4">
         <v>1451</v>
       </c>
@@ -14054,7 +14054,7 @@
       </c>
       <c r="M161" s="6"/>
     </row>
-    <row r="162" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="4">
         <v>1452</v>
       </c>
@@ -14093,7 +14093,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="163" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="4">
         <v>1453</v>
       </c>
@@ -14130,7 +14130,7 @@
       </c>
       <c r="M163" s="6"/>
     </row>
-    <row r="164" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="4">
         <v>1454</v>
       </c>
@@ -14169,7 +14169,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="165" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4">
         <v>1455</v>
       </c>
@@ -14208,7 +14208,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="166" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="4">
         <v>1456</v>
       </c>
@@ -14247,7 +14247,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="167" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
         <v>1457</v>
       </c>
@@ -14286,7 +14286,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="168" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="4">
         <v>1458</v>
       </c>
@@ -14325,7 +14325,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="169" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="4">
         <v>1459</v>
       </c>
@@ -14364,7 +14364,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="170" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="4">
         <v>1460</v>
       </c>
@@ -14403,7 +14403,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="171" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="4">
         <v>1461</v>
       </c>
@@ -14442,7 +14442,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="172" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4">
         <v>1462</v>
       </c>
@@ -14481,7 +14481,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="173" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="4">
         <v>1463</v>
       </c>
@@ -14520,7 +14520,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="174" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="4">
         <v>1464</v>
       </c>
@@ -14559,7 +14559,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="175" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="4">
         <v>1465</v>
       </c>
@@ -14598,7 +14598,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="176" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="4">
         <v>1466</v>
       </c>
@@ -14637,7 +14637,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="177" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="4">
         <v>1467</v>
       </c>
@@ -14676,7 +14676,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="178" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="4">
         <v>1468</v>
       </c>
@@ -14715,7 +14715,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="179" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="4">
         <v>1469</v>
       </c>
@@ -14754,7 +14754,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="180" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="4">
         <v>1470</v>
       </c>
@@ -14793,7 +14793,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="181" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="4">
         <v>1471</v>
       </c>
@@ -14832,7 +14832,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="182" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="4">
         <v>1472</v>
       </c>
@@ -14871,7 +14871,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="183" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="4">
         <v>1473</v>
       </c>
@@ -14910,7 +14910,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="184" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="4">
         <v>1474</v>
       </c>
@@ -14949,7 +14949,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="185" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="4">
         <v>1475</v>
       </c>
@@ -14988,7 +14988,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="186" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="4">
         <v>1476</v>
       </c>
@@ -15019,7 +15019,7 @@
       <c r="L186" s="6"/>
       <c r="M186" s="6"/>
     </row>
-    <row r="187" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="4">
         <v>1477</v>
       </c>
@@ -15058,7 +15058,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="188" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="4">
         <v>1478</v>
       </c>
@@ -15097,7 +15097,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="189" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="4">
         <v>1479</v>
       </c>
@@ -15134,7 +15134,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="190" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="4">
         <v>1480</v>
       </c>
@@ -15171,7 +15171,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="191" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="4">
         <v>1481</v>
       </c>
@@ -15208,7 +15208,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="192" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="4">
         <v>1482</v>
       </c>
@@ -15245,7 +15245,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="193" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="4">
         <v>1483</v>
       </c>
@@ -15282,7 +15282,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="194" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4">
         <v>1484</v>
       </c>
@@ -15319,7 +15319,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="195" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="4">
         <v>1485</v>
       </c>
@@ -15356,7 +15356,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="196" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="4">
         <v>1486</v>
       </c>
@@ -15393,7 +15393,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="197" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="4">
         <v>1487</v>
       </c>
@@ -15430,7 +15430,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="198" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="4">
         <v>1488</v>
       </c>
@@ -15471,7 +15471,7 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="199" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="4">
         <v>1489</v>
       </c>
@@ -15510,7 +15510,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="200" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="4">
         <v>1490</v>
       </c>
@@ -15551,7 +15551,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="201" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="4">
         <v>1491</v>
       </c>
@@ -15588,7 +15588,7 @@
       </c>
       <c r="M201" s="6"/>
     </row>
-    <row r="202" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="4">
         <v>1492</v>
       </c>
@@ -15629,7 +15629,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="203" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="4">
         <v>1493</v>
       </c>
@@ -15670,7 +15670,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="204" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="4">
         <v>1494</v>
       </c>
@@ -15711,7 +15711,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="205" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="4">
         <v>1495</v>
       </c>
@@ -15752,7 +15752,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="206" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="4">
         <v>1496</v>
       </c>
@@ -15793,7 +15793,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="207" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="4">
         <v>1497</v>
       </c>
@@ -15834,7 +15834,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="208" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="4">
         <v>1498</v>
       </c>
@@ -15873,7 +15873,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="209" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="4">
         <v>1499</v>
       </c>
@@ -15914,7 +15914,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="210" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="4">
         <v>1500</v>
       </c>
@@ -15955,7 +15955,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="211" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="4">
         <v>1501</v>
       </c>
@@ -15996,7 +15996,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="212" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="4">
         <v>1502</v>
       </c>
@@ -16037,7 +16037,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="213" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="4">
         <v>1503</v>
       </c>
@@ -16076,7 +16076,7 @@
       </c>
       <c r="M213" s="6"/>
     </row>
-    <row r="214" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="4">
         <v>1504</v>
       </c>
@@ -16117,7 +16117,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="215" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="4">
         <v>1505</v>
       </c>
@@ -16158,7 +16158,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="216" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="4">
         <v>1506</v>
       </c>
@@ -16197,7 +16197,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="217" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="4">
         <v>1507</v>
       </c>
@@ -16238,7 +16238,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="218" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="4">
         <v>1508</v>
       </c>
@@ -16279,7 +16279,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="219" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="4">
         <v>1509</v>
       </c>
@@ -16318,7 +16318,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="220" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="4">
         <v>1510</v>
       </c>
@@ -16359,7 +16359,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="221" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="4">
         <v>1511</v>
       </c>
@@ -16398,7 +16398,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="222" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="4">
         <v>1512</v>
       </c>
@@ -16439,7 +16439,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="223" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="4">
         <v>1513</v>
       </c>
@@ -16480,7 +16480,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="224" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="4">
         <v>1514</v>
       </c>
@@ -16519,7 +16519,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="225" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="4">
         <v>1515</v>
       </c>
@@ -16558,7 +16558,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="226" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="4">
         <v>1516</v>
       </c>
@@ -16597,7 +16597,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="227" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="4">
         <v>1517</v>
       </c>
@@ -16636,7 +16636,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="228" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="4">
         <v>1518</v>
       </c>
@@ -16675,7 +16675,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="229" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="4">
         <v>1519</v>
       </c>
@@ -16714,7 +16714,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="230" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="4">
         <v>1520</v>
       </c>
@@ -16753,7 +16753,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="231" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="4">
         <v>1521</v>
       </c>
@@ -16792,7 +16792,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="232" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="4">
         <v>1522</v>
       </c>
@@ -16831,7 +16831,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="233" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="4">
         <v>1523</v>
       </c>
@@ -16870,7 +16870,7 @@
         <v>3004362366</v>
       </c>
     </row>
-    <row r="234" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="4">
         <v>1524</v>
       </c>
@@ -16909,7 +16909,7 @@
         <v>3223645385</v>
       </c>
     </row>
-    <row r="235" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="4">
         <v>1525</v>
       </c>
@@ -16948,7 +16948,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="236" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="4">
         <v>1526</v>
       </c>
@@ -16987,7 +16987,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="237" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="4">
         <v>1527</v>
       </c>
@@ -17026,7 +17026,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="238" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="4">
         <v>1528</v>
       </c>
@@ -17065,7 +17065,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="239" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="4">
         <v>1529</v>
       </c>
@@ -17104,7 +17104,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="240" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="4">
         <v>1530</v>
       </c>
@@ -17143,7 +17143,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="241" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="4">
         <v>1531</v>
       </c>
@@ -17182,7 +17182,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="242" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="4">
         <v>1532</v>
       </c>
@@ -17221,7 +17221,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="243" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="4">
         <v>1533</v>
       </c>
@@ -17260,7 +17260,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="244" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="4">
         <v>1534</v>
       </c>
@@ -17299,7 +17299,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="245" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="4">
         <v>1535</v>
       </c>
@@ -17338,7 +17338,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="246" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="4">
         <v>1536</v>
       </c>
@@ -17377,7 +17377,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="247" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="4">
         <v>1537</v>
       </c>
@@ -17416,7 +17416,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="248" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="4">
         <v>1538</v>
       </c>
@@ -17455,7 +17455,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="249" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="4">
         <v>1539</v>
       </c>
@@ -17496,7 +17496,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="250" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="4">
         <v>1540</v>
       </c>
@@ -17533,7 +17533,7 @@
       </c>
       <c r="M250" s="6"/>
     </row>
-    <row r="251" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="4">
         <v>1541</v>
       </c>
@@ -17572,7 +17572,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="252" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="4">
         <v>1542</v>
       </c>
@@ -17611,7 +17611,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="253" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="4">
         <v>1543</v>
       </c>
@@ -17650,7 +17650,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="254" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="4">
         <v>1544</v>
       </c>
@@ -17689,7 +17689,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="255" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="4">
         <v>1545</v>
       </c>
@@ -17728,7 +17728,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="256" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="4">
         <v>1546</v>
       </c>
@@ -17769,7 +17769,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="257" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="4">
         <v>1547</v>
       </c>
@@ -17810,7 +17810,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="258" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="4">
         <v>1548</v>
       </c>
@@ -17851,7 +17851,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="259" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="4">
         <v>1549</v>
       </c>
@@ -17892,7 +17892,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="260" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="4">
         <v>1550</v>
       </c>
@@ -17933,7 +17933,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="261" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="4">
         <v>1551</v>
       </c>
@@ -17974,7 +17974,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="262" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="4">
         <v>1552</v>
       </c>
@@ -18015,7 +18015,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="263" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="4">
         <v>1553</v>
       </c>
@@ -18054,7 +18054,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="264" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="4">
         <v>1554</v>
       </c>
@@ -18095,7 +18095,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="265" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="4">
         <v>1555</v>
       </c>
@@ -18136,7 +18136,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="266" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="4">
         <v>1556</v>
       </c>
@@ -18177,7 +18177,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="267" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="4">
         <v>1557</v>
       </c>
@@ -18218,7 +18218,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="268" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="4">
         <v>1558</v>
       </c>
@@ -18259,7 +18259,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="269" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="4">
         <v>1559</v>
       </c>
@@ -18298,7 +18298,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="270" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="4">
         <v>1560</v>
       </c>
@@ -18339,7 +18339,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="271" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="4">
         <v>1561</v>
       </c>
@@ -18378,7 +18378,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="272" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="4">
         <v>1562</v>
       </c>
@@ -18417,7 +18417,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="273" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="4">
         <v>1563</v>
       </c>
@@ -18456,7 +18456,7 @@
       </c>
       <c r="M273" s="6"/>
     </row>
-    <row r="274" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="4">
         <v>1564</v>
       </c>
@@ -18495,7 +18495,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="275" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="4">
         <v>1565</v>
       </c>
@@ -18536,7 +18536,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="276" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="4">
         <v>1566</v>
       </c>
@@ -18575,7 +18575,7 @@
       </c>
       <c r="M276" s="6"/>
     </row>
-    <row r="277" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="4">
         <v>1567</v>
       </c>
@@ -18616,7 +18616,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="278" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="4">
         <v>1568</v>
       </c>
@@ -18657,7 +18657,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="279" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="4">
         <v>1569</v>
       </c>
@@ -18694,7 +18694,7 @@
       </c>
       <c r="M279" s="6"/>
     </row>
-    <row r="280" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="4">
         <v>1570</v>
       </c>
@@ -18735,7 +18735,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="281" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="4">
         <v>1571</v>
       </c>
@@ -18776,7 +18776,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="282" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="4">
         <v>1572</v>
       </c>
@@ -18817,7 +18817,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="283" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="4">
         <v>1573</v>
       </c>
@@ -18858,7 +18858,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="284" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="4">
         <v>1574</v>
       </c>
@@ -18899,7 +18899,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="285" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="4">
         <v>1575</v>
       </c>
@@ -18940,7 +18940,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="286" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="4">
         <v>1576</v>
       </c>
@@ -18979,7 +18979,7 @@
       </c>
       <c r="M286" s="6"/>
     </row>
-    <row r="287" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="4">
         <v>1577</v>
       </c>
@@ -19018,7 +19018,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="288" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="4">
         <v>1578</v>
       </c>
@@ -19057,7 +19057,7 @@
         <v>3474434450</v>
       </c>
     </row>
-    <row r="289" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="4">
         <v>1579</v>
       </c>
@@ -19096,7 +19096,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="290" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="4">
         <v>1580</v>
       </c>
@@ -19135,7 +19135,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="291" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="4">
         <v>1581</v>
       </c>
@@ -19174,7 +19174,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="292" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="4">
         <v>1582</v>
       </c>
@@ -19211,7 +19211,7 @@
       </c>
       <c r="M292" s="6"/>
     </row>
-    <row r="293" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="4">
         <v>1583</v>
       </c>
@@ -19250,7 +19250,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="294" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="4">
         <v>1584</v>
       </c>
@@ -19287,7 +19287,7 @@
       </c>
       <c r="M294" s="6"/>
     </row>
-    <row r="295" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="4">
         <v>1585</v>
       </c>
@@ -19326,7 +19326,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="296" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="4">
         <v>1586</v>
       </c>
@@ -19365,7 +19365,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="297" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="4">
         <v>1587</v>
       </c>
@@ -19404,7 +19404,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="298" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="4">
         <v>1588</v>
       </c>
@@ -19443,7 +19443,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="299" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="4">
         <v>1589</v>
       </c>
@@ -19482,7 +19482,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="300" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="4">
         <v>1590</v>
       </c>
@@ -19521,7 +19521,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="301" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="4">
         <v>1591</v>
       </c>
@@ -19560,7 +19560,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="302" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="4">
         <v>1592</v>
       </c>
@@ -19599,7 +19599,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="303" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="4">
         <v>1593</v>
       </c>
@@ -19638,7 +19638,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="304" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="4">
         <v>1594</v>
       </c>
@@ -19677,7 +19677,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="305" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="4">
         <v>1595</v>
       </c>
@@ -19716,7 +19716,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="306" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="4">
         <v>1596</v>
       </c>
@@ -19755,7 +19755,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="307" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="4">
         <v>1597</v>
       </c>
@@ -19794,7 +19794,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="308" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="4">
         <v>1598</v>
       </c>
@@ -19833,7 +19833,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="309" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="4">
         <v>1599</v>
       </c>
@@ -19872,7 +19872,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="310" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="4">
         <v>1600</v>
       </c>
@@ -19911,7 +19911,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="311" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="4">
         <v>1601</v>
       </c>
@@ -19950,7 +19950,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="312" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="4">
         <v>1602</v>
       </c>
@@ -19989,7 +19989,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="313" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="4">
         <v>1603</v>
       </c>
@@ -20028,7 +20028,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="314" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="4">
         <v>1604</v>
       </c>
@@ -20067,7 +20067,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="315" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="4">
         <v>1605</v>
       </c>
@@ -20106,7 +20106,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="316" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="4">
         <v>1606</v>
       </c>
@@ -20143,7 +20143,7 @@
       </c>
       <c r="M316" s="6"/>
     </row>
-    <row r="317" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="4">
         <v>1607</v>
       </c>
@@ -20182,7 +20182,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="318" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="4">
         <v>1608</v>
       </c>
@@ -20221,7 +20221,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="319" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="4">
         <v>1609</v>
       </c>
@@ -20262,7 +20262,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="320" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="4">
         <v>1610</v>
       </c>
@@ -20301,7 +20301,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="321" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="4">
         <v>1611</v>
       </c>
@@ -20340,7 +20340,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="322" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="4">
         <v>1612</v>
       </c>
@@ -20377,7 +20377,7 @@
       </c>
       <c r="M322" s="6"/>
     </row>
-    <row r="323" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="4">
         <v>1613</v>
       </c>
@@ -20414,7 +20414,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="324" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="4">
         <v>1614</v>
       </c>
@@ -20455,7 +20455,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="325" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="4">
         <v>1615</v>
       </c>
@@ -20494,7 +20494,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="326" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="4">
         <v>1616</v>
       </c>
@@ -20533,7 +20533,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="327" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="4">
         <v>1617</v>
       </c>
@@ -20572,7 +20572,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="328" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="4">
         <v>1618</v>
       </c>
@@ -20611,7 +20611,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="329" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="4">
         <v>1619</v>
       </c>
@@ -20650,7 +20650,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="330" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="4">
         <v>1620</v>
       </c>
@@ -20689,7 +20689,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="331" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="4">
         <v>1621</v>
       </c>
@@ -20728,7 +20728,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="332" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="4">
         <v>1622</v>
       </c>
@@ -20769,7 +20769,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="333" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="4">
         <v>1623</v>
       </c>
@@ -20810,7 +20810,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="334" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="4">
         <v>1624</v>
       </c>
@@ -20851,7 +20851,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="335" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="4">
         <v>1625</v>
       </c>
@@ -20892,7 +20892,7 @@
         <v>3204609868</v>
       </c>
     </row>
-    <row r="336" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="4">
         <v>1626</v>
       </c>
@@ -20933,7 +20933,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="337" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="4">
         <v>1627</v>
       </c>
@@ -20972,7 +20972,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="338" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="4">
         <v>1628</v>
       </c>
@@ -21013,7 +21013,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="339" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="4">
         <v>1629</v>
       </c>
@@ -21054,7 +21054,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="340" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="4">
         <v>1630</v>
       </c>
@@ -21093,7 +21093,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="341" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="4">
         <v>1631</v>
       </c>
@@ -21132,7 +21132,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="342" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="4">
         <v>1632</v>
       </c>
@@ -21173,7 +21173,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="343" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="4">
         <v>1633</v>
       </c>
@@ -21214,7 +21214,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="344" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="4">
         <v>1634</v>
       </c>
@@ -21255,7 +21255,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="345" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="4">
         <v>1635</v>
       </c>
@@ -21296,7 +21296,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="346" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="4">
         <v>1636</v>
       </c>
@@ -21337,7 +21337,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="347" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="4">
         <v>1637</v>
       </c>
@@ -21378,7 +21378,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="348" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="4">
         <v>1638</v>
       </c>
@@ -21419,7 +21419,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="349" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="4">
         <v>1639</v>
       </c>
@@ -21460,7 +21460,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="350" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="4">
         <v>1640</v>
       </c>
@@ -21501,7 +21501,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="351" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="4">
         <v>1641</v>
       </c>
@@ -21542,7 +21542,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="352" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="4">
         <v>1642</v>
       </c>
@@ -21583,7 +21583,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="353" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="4">
         <v>1643</v>
       </c>
@@ -21624,7 +21624,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="354" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="4">
         <v>1644</v>
       </c>
@@ -21665,7 +21665,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="355" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="4">
         <v>1645</v>
       </c>
@@ -21706,7 +21706,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="356" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="4">
         <v>1646</v>
       </c>
@@ -21747,7 +21747,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="357" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="4">
         <v>1647</v>
       </c>
@@ -21786,7 +21786,7 @@
       </c>
       <c r="M357" s="6"/>
     </row>
-    <row r="358" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="4">
         <v>1648</v>
       </c>
@@ -21827,7 +21827,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="359" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="4">
         <v>1649</v>
       </c>
@@ -21868,7 +21868,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="360" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="4">
         <v>1650</v>
       </c>
@@ -21909,7 +21909,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="361" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="4">
         <v>1651</v>
       </c>
@@ -21948,7 +21948,7 @@
       </c>
       <c r="M361" s="6"/>
     </row>
-    <row r="362" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="4">
         <v>1652</v>
       </c>
@@ -21989,7 +21989,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="363" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="4">
         <v>1653</v>
       </c>
@@ -22030,7 +22030,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="364" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="4">
         <v>1654</v>
       </c>
@@ -22071,7 +22071,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="365" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="4">
         <v>1655</v>
       </c>
@@ -22112,7 +22112,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="366" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="4">
         <v>1656</v>
       </c>
@@ -22153,7 +22153,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="367" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="4">
         <v>1657</v>
       </c>
@@ -22194,7 +22194,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="368" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="4">
         <v>1658</v>
       </c>
@@ -22235,7 +22235,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="369" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="4">
         <v>1659</v>
       </c>
@@ -22276,7 +22276,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="370" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="4">
         <v>1660</v>
       </c>
@@ -22317,7 +22317,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="371" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="4">
         <v>1661</v>
       </c>
@@ -22358,7 +22358,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="372" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="4">
         <v>1662</v>
       </c>
@@ -22397,7 +22397,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="373" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="4">
         <v>1663</v>
       </c>
@@ -22438,7 +22438,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="374" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="4">
         <v>1664</v>
       </c>
@@ -22479,7 +22479,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="375" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="4">
         <v>1665</v>
       </c>
@@ -22520,7 +22520,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="376" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="4">
         <v>1666</v>
       </c>
@@ -22559,7 +22559,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="377" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="4">
         <v>1667</v>
       </c>
@@ -22598,7 +22598,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="378" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="4">
         <v>1668</v>
       </c>
@@ -22639,7 +22639,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="379" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="4">
         <v>1669</v>
       </c>
@@ -22680,7 +22680,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="380" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="4">
         <v>1670</v>
       </c>
@@ -22721,7 +22721,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="381" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="4">
         <v>1671</v>
       </c>
@@ -22762,7 +22762,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="382" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="4">
         <v>1672</v>
       </c>
@@ -22803,7 +22803,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="383" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="4">
         <v>1673</v>
       </c>
@@ -22844,7 +22844,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="384" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="4">
         <v>1674</v>
       </c>
@@ -22885,7 +22885,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="385" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="4">
         <v>1675</v>
       </c>
@@ -22926,7 +22926,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="386" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="4">
         <v>1676</v>
       </c>
@@ -22965,7 +22965,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="387" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="4">
         <v>1677</v>
       </c>
@@ -23006,7 +23006,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="388" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="4">
         <v>1678</v>
       </c>
@@ -23047,7 +23047,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="389" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="4">
         <v>1679</v>
       </c>
@@ -23086,7 +23086,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="390" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="4">
         <v>1680</v>
       </c>
@@ -23125,7 +23125,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="391" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="4">
         <v>1681</v>
       </c>
@@ -23164,7 +23164,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="392" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="4">
         <v>1682</v>
       </c>
@@ -23203,7 +23203,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="393" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="4">
         <v>1683</v>
       </c>
@@ -23244,7 +23244,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="394" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="4">
         <v>1684</v>
       </c>
@@ -23285,7 +23285,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="395" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="4">
         <v>1685</v>
       </c>
@@ -23326,7 +23326,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="396" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="4">
         <v>1686</v>
       </c>
@@ -23367,7 +23367,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="397" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="4">
         <v>1687</v>
       </c>
@@ -23406,7 +23406,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="398" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="4">
         <v>1688</v>
       </c>
@@ -23447,7 +23447,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="399" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="4">
         <v>1689</v>
       </c>
@@ -23486,7 +23486,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="400" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="4">
         <v>1690</v>
       </c>
@@ -23523,7 +23523,7 @@
       </c>
       <c r="M400" s="6"/>
     </row>
-    <row r="401" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="4">
         <v>1691</v>
       </c>
@@ -23564,7 +23564,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="402" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="4">
         <v>1692</v>
       </c>
@@ -23605,7 +23605,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="403" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="4">
         <v>1693</v>
       </c>
@@ -23646,7 +23646,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="404" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="4">
         <v>1694</v>
       </c>
@@ -23685,7 +23685,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="405" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="4">
         <v>1695</v>
       </c>
@@ -23726,7 +23726,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="406" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="4">
         <v>1696</v>
       </c>
@@ -23767,7 +23767,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="407" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="4">
         <v>1697</v>
       </c>
@@ -23808,7 +23808,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="408" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="4">
         <v>1698</v>
       </c>
@@ -23845,7 +23845,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="409" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="4">
         <v>1699</v>
       </c>
@@ -23886,7 +23886,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="410" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="4">
         <v>1700</v>
       </c>
@@ -23927,7 +23927,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="411" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="4">
         <v>1701</v>
       </c>
@@ -23968,7 +23968,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="412" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="4">
         <v>1702</v>
       </c>
@@ -24009,7 +24009,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="413" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="4">
         <v>1703</v>
       </c>
@@ -24048,7 +24048,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="414" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="4">
         <v>1704</v>
       </c>
@@ -24087,7 +24087,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="415" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="4">
         <v>1705</v>
       </c>
@@ -24126,7 +24126,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="416" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="4">
         <v>1706</v>
       </c>
@@ -24165,7 +24165,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="417" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="4">
         <v>1707</v>
       </c>
@@ -24204,7 +24204,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="418" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="4">
         <v>1708</v>
       </c>
@@ -24243,7 +24243,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="419" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="4">
         <v>1709</v>
       </c>
@@ -24282,7 +24282,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="420" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="4">
         <v>1710</v>
       </c>
@@ -24321,7 +24321,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="421" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="4">
         <v>1711</v>
       </c>
@@ -24360,7 +24360,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="422" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="4">
         <v>1712</v>
       </c>
@@ -24399,7 +24399,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="423" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="4">
         <v>1713</v>
       </c>
@@ -24438,7 +24438,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="424" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="4">
         <v>1714</v>
       </c>
@@ -24477,7 +24477,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="425" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="4">
         <v>1715</v>
       </c>
@@ -24516,7 +24516,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="426" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="4">
         <v>1716</v>
       </c>
@@ -24557,7 +24557,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="427" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="4">
         <v>1717</v>
       </c>
@@ -24596,7 +24596,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="428" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="4">
         <v>1718</v>
       </c>
@@ -24637,7 +24637,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="429" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="4">
         <v>1719</v>
       </c>
@@ -24678,7 +24678,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="430" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="4">
         <v>1720</v>
       </c>
@@ -24717,7 +24717,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="431" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="4">
         <v>1721</v>
       </c>
@@ -24758,7 +24758,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="432" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="4">
         <v>1722</v>
       </c>
@@ -24799,7 +24799,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="433" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="4">
         <v>1723</v>
       </c>
@@ -24840,7 +24840,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="434" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="4">
         <v>1724</v>
       </c>
@@ -24881,7 +24881,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="435" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="4">
         <v>1725</v>
       </c>
@@ -24920,7 +24920,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="436" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="4">
         <v>1726</v>
       </c>
@@ -24959,7 +24959,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="437" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="4">
         <v>1727</v>
       </c>
@@ -24998,7 +24998,7 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="438" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="4">
         <v>1728</v>
       </c>
@@ -25037,7 +25037,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="439" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="4">
         <v>1729</v>
       </c>
@@ -25076,7 +25076,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="440" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="4">
         <v>1730</v>
       </c>
@@ -25115,7 +25115,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="441" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="4">
         <v>1731</v>
       </c>
@@ -25154,7 +25154,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="442" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="4">
         <v>1732</v>
       </c>
@@ -25193,7 +25193,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="443" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="4">
         <v>1733</v>
       </c>
@@ -25230,7 +25230,7 @@
       </c>
       <c r="M443" s="6"/>
     </row>
-    <row r="444" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="4">
         <v>1734</v>
       </c>
@@ -25269,7 +25269,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="445" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="4">
         <v>1735</v>
       </c>
@@ -25306,7 +25306,7 @@
       </c>
       <c r="M445" s="6"/>
     </row>
-    <row r="446" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="4">
         <v>1736</v>
       </c>
@@ -25345,7 +25345,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="447" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="4">
         <v>1737</v>
       </c>
@@ -25384,7 +25384,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="448" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="4">
         <v>1738</v>
       </c>
@@ -25423,7 +25423,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="449" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="4">
         <v>1739</v>
       </c>
@@ -25460,7 +25460,7 @@
       </c>
       <c r="M449" s="6"/>
     </row>
-    <row r="450" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="4">
         <v>1740</v>
       </c>
@@ -25499,7 +25499,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="451" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="4">
         <v>1741</v>
       </c>
@@ -25538,7 +25538,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="452" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="4">
         <v>1742</v>
       </c>
@@ -25577,7 +25577,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="453" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="4">
         <v>1743</v>
       </c>
@@ -25616,7 +25616,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="454" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="4">
         <v>1744</v>
       </c>
@@ -25655,7 +25655,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="455" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="4">
         <v>1745</v>
       </c>
@@ -25694,7 +25694,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="456" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="4">
         <v>1746</v>
       </c>
@@ -25733,7 +25733,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="457" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="4">
         <v>1747</v>
       </c>
@@ -25770,7 +25770,7 @@
       </c>
       <c r="M457" s="6"/>
     </row>
-    <row r="458" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="4">
         <v>1748</v>
       </c>
@@ -25809,7 +25809,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="459" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="4">
         <v>1749</v>
       </c>
@@ -25848,7 +25848,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="460" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="4">
         <v>1750</v>
       </c>
@@ -25887,7 +25887,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="461" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="4">
         <v>1751</v>
       </c>
@@ -25926,7 +25926,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="462" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="4">
         <v>1752</v>
       </c>
@@ -25965,7 +25965,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="463" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="4">
         <v>1753</v>
       </c>
@@ -26004,7 +26004,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="464" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="4">
         <v>1754</v>
       </c>
@@ -26043,7 +26043,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="465" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="4">
         <v>1755</v>
       </c>
@@ -26080,7 +26080,7 @@
       </c>
       <c r="M465" s="6"/>
     </row>
-    <row r="466" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="4">
         <v>1756</v>
       </c>
@@ -26119,7 +26119,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="467" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="4">
         <v>1757</v>
       </c>
@@ -26158,7 +26158,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="468" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="4">
         <v>1758</v>
       </c>
@@ -26197,7 +26197,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="469" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="4">
         <v>1759</v>
       </c>
@@ -26236,7 +26236,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="470" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="4">
         <v>1760</v>
       </c>
@@ -26275,7 +26275,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="471" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="4">
         <v>1761</v>
       </c>
@@ -26314,7 +26314,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="472" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="4">
         <v>1762</v>
       </c>
@@ -26353,7 +26353,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="473" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="4">
         <v>1763</v>
       </c>
@@ -26392,7 +26392,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="474" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="4">
         <v>1764</v>
       </c>
@@ -26431,7 +26431,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="475" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="4">
         <v>1765</v>
       </c>
@@ -26470,7 +26470,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="476" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="4">
         <v>1766</v>
       </c>
@@ -26509,7 +26509,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="477" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="4">
         <v>1767</v>
       </c>
@@ -26548,7 +26548,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="478" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="4">
         <v>1768</v>
       </c>
@@ -26587,7 +26587,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="479" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="4">
         <v>1769</v>
       </c>
@@ -26626,7 +26626,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="480" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="4">
         <v>1770</v>
       </c>
@@ -26665,7 +26665,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="481" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="4">
         <v>1771</v>
       </c>
@@ -26704,7 +26704,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="482" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="4">
         <v>1772</v>
       </c>
@@ -26743,7 +26743,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="483" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="4">
         <v>1773</v>
       </c>
@@ -26782,7 +26782,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="484" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="4">
         <v>1774</v>
       </c>
@@ -26821,7 +26821,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="485" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="4">
         <v>1775</v>
       </c>
@@ -26860,7 +26860,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="486" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="4">
         <v>1776</v>
       </c>
@@ -26899,7 +26899,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="487" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="4">
         <v>1777</v>
       </c>
@@ -26938,7 +26938,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="488" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="4">
         <v>1778</v>
       </c>
@@ -26977,7 +26977,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="489" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="4">
         <v>1779</v>
       </c>
@@ -27016,7 +27016,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="490" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="4">
         <v>1780</v>
       </c>
@@ -27055,7 +27055,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="491" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="4">
         <v>1781</v>
       </c>
@@ -27094,7 +27094,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="492" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="4">
         <v>1782</v>
       </c>
@@ -27133,7 +27133,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="493" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="4">
         <v>1783</v>
       </c>
@@ -27172,7 +27172,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="494" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="4">
         <v>1784</v>
       </c>
@@ -27211,7 +27211,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="495" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="4">
         <v>1785</v>
       </c>
@@ -27250,7 +27250,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="496" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="4">
         <v>1786</v>
       </c>
@@ -27289,7 +27289,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="497" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="4">
         <v>1787</v>
       </c>
@@ -27328,7 +27328,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="498" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="4">
         <v>1788</v>
       </c>
@@ -27365,7 +27365,7 @@
       </c>
       <c r="M498" s="6"/>
     </row>
-    <row r="499" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="4">
         <v>1789</v>
       </c>
@@ -27404,7 +27404,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="500" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="4">
         <v>1790</v>
       </c>
@@ -27443,7 +27443,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="501" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="4">
         <v>1791</v>
       </c>
@@ -27476,7 +27476,7 @@
       <c r="L501" s="6"/>
       <c r="M501" s="6"/>
     </row>
-    <row r="502" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="4">
         <v>1792</v>
       </c>
@@ -27509,7 +27509,7 @@
       <c r="L502" s="6"/>
       <c r="M502" s="6"/>
     </row>
-    <row r="503" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="4">
         <v>1793</v>
       </c>
@@ -27540,7 +27540,7 @@
       <c r="L503" s="6"/>
       <c r="M503" s="6"/>
     </row>
-    <row r="504" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="4">
         <v>1794</v>
       </c>
@@ -27577,7 +27577,7 @@
       </c>
       <c r="M504" s="6"/>
     </row>
-    <row r="505" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="4">
         <v>1795</v>
       </c>
@@ -27610,7 +27610,7 @@
       <c r="L505" s="6"/>
       <c r="M505" s="6"/>
     </row>
-    <row r="506" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="4">
         <v>1796</v>
       </c>
@@ -27643,7 +27643,7 @@
       <c r="L506" s="6"/>
       <c r="M506" s="6"/>
     </row>
-    <row r="507" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="4">
         <v>1797</v>
       </c>
@@ -27676,7 +27676,7 @@
       <c r="L507" s="6"/>
       <c r="M507" s="6"/>
     </row>
-    <row r="508" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="4">
         <v>1798</v>
       </c>
@@ -27709,7 +27709,7 @@
       <c r="L508" s="6"/>
       <c r="M508" s="6"/>
     </row>
-    <row r="509" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="4">
         <v>1799</v>
       </c>
@@ -27746,7 +27746,7 @@
       </c>
       <c r="M509" s="6"/>
     </row>
-    <row r="510" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="4">
         <v>1800</v>
       </c>
@@ -27785,7 +27785,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="511" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="4">
         <v>1801</v>
       </c>
@@ -27826,7 +27826,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="512" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="4">
         <v>1802</v>
       </c>
@@ -27867,7 +27867,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="513" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="4">
         <v>1803</v>
       </c>
@@ -27906,7 +27906,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="514" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="4">
         <v>1804</v>
       </c>
@@ -27947,7 +27947,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="515" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="4">
         <v>1805</v>
       </c>
@@ -27978,7 +27978,7 @@
       <c r="L515" s="6"/>
       <c r="M515" s="6"/>
     </row>
-    <row r="516" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="4">
         <v>1806</v>
       </c>
@@ -28019,7 +28019,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="517" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="4">
         <v>1807</v>
       </c>
@@ -28060,7 +28060,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="518" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="4">
         <v>1808</v>
       </c>
@@ -28101,7 +28101,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="519" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="4">
         <v>1809</v>
       </c>
@@ -28140,7 +28140,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="520" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="4">
         <v>1810</v>
       </c>
@@ -28181,7 +28181,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="521" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="4">
         <v>1811</v>
       </c>
@@ -28222,7 +28222,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="522" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="4">
         <v>1812</v>
       </c>
@@ -28263,7 +28263,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="523" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="4">
         <v>1813</v>
       </c>
@@ -28304,7 +28304,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="524" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="4">
         <v>1814</v>
       </c>
@@ -28343,7 +28343,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="525" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="4">
         <v>1815</v>
       </c>
@@ -28382,7 +28382,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="526" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="4">
         <v>1816</v>
       </c>
@@ -28421,7 +28421,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="527" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="4">
         <v>1817</v>
       </c>
@@ -28452,7 +28452,7 @@
       <c r="L527" s="6"/>
       <c r="M527" s="6"/>
     </row>
-    <row r="528" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="4">
         <v>1818</v>
       </c>
@@ -28483,7 +28483,7 @@
       <c r="L528" s="6"/>
       <c r="M528" s="6"/>
     </row>
-    <row r="529" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="4">
         <v>1819</v>
       </c>
@@ -28522,7 +28522,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="530" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="4">
         <v>1820</v>
       </c>
@@ -28559,7 +28559,7 @@
       </c>
       <c r="M530" s="6"/>
     </row>
-    <row r="531" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="4">
         <v>1821</v>
       </c>
@@ -28590,7 +28590,7 @@
       <c r="L531" s="6"/>
       <c r="M531" s="6"/>
     </row>
-    <row r="532" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="4">
         <v>1822</v>
       </c>
@@ -28629,7 +28629,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="533" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="4">
         <v>1823</v>
       </c>
@@ -28668,7 +28668,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="534" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="4">
         <v>1824</v>
       </c>
@@ -28707,7 +28707,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="535" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="4">
         <v>1825</v>
       </c>
@@ -28746,7 +28746,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="536" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="4">
         <v>1826</v>
       </c>
@@ -28785,7 +28785,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="537" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="4">
         <v>1827</v>
       </c>
@@ -28824,7 +28824,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="538" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="4">
         <v>1828</v>
       </c>
@@ -28863,7 +28863,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="539" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="4">
         <v>1829</v>
       </c>
@@ -28894,7 +28894,7 @@
       <c r="L539" s="6"/>
       <c r="M539" s="6"/>
     </row>
-    <row r="540" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="4">
         <v>1830</v>
       </c>
@@ -28925,7 +28925,7 @@
       <c r="L540" s="6"/>
       <c r="M540" s="6"/>
     </row>
-    <row r="541" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="4">
         <v>1831</v>
       </c>
@@ -28964,7 +28964,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="542" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="4">
         <v>1832</v>
       </c>
@@ -29003,7 +29003,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="543" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="4">
         <v>1833</v>
       </c>
@@ -29040,7 +29040,7 @@
       </c>
       <c r="M543" s="6"/>
     </row>
-    <row r="544" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="4">
         <v>1834</v>
       </c>
@@ -29081,7 +29081,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="545" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="4">
         <v>1835</v>
       </c>
@@ -29122,7 +29122,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="546" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="4">
         <v>1836</v>
       </c>
@@ -29163,7 +29163,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="547" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="4">
         <v>1837</v>
       </c>
@@ -29194,7 +29194,7 @@
       <c r="L547" s="6"/>
       <c r="M547" s="6"/>
     </row>
-    <row r="548" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="4">
         <v>1838</v>
       </c>
@@ -29231,7 +29231,7 @@
       </c>
       <c r="M548" s="6"/>
     </row>
-    <row r="549" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="4">
         <v>1839</v>
       </c>
@@ -29272,7 +29272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="4">
         <v>1840</v>
       </c>
@@ -29303,7 +29303,7 @@
       <c r="L550" s="6"/>
       <c r="M550" s="6"/>
     </row>
-    <row r="551" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="4">
         <v>1841</v>
       </c>
@@ -29334,7 +29334,7 @@
       <c r="L551" s="6"/>
       <c r="M551" s="6"/>
     </row>
-    <row r="552" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="4">
         <v>1842</v>
       </c>
@@ -29365,7 +29365,7 @@
       <c r="L552" s="6"/>
       <c r="M552" s="6"/>
     </row>
-    <row r="553" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="4">
         <v>1843</v>
       </c>
@@ -29396,7 +29396,7 @@
       <c r="L553" s="6"/>
       <c r="M553" s="6"/>
     </row>
-    <row r="554" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="4">
         <v>1844</v>
       </c>
@@ -29427,7 +29427,7 @@
       <c r="L554" s="6"/>
       <c r="M554" s="6"/>
     </row>
-    <row r="555" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="4">
         <v>1845</v>
       </c>
@@ -29458,7 +29458,7 @@
       <c r="L555" s="6"/>
       <c r="M555" s="6"/>
     </row>
-    <row r="556" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="4">
         <v>1846</v>
       </c>
@@ -29489,7 +29489,7 @@
       <c r="L556" s="6"/>
       <c r="M556" s="6"/>
     </row>
-    <row r="557" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="4">
         <v>1847</v>
       </c>
@@ -29520,7 +29520,7 @@
       <c r="L557" s="6"/>
       <c r="M557" s="6"/>
     </row>
-    <row r="558" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="4">
         <v>1848</v>
       </c>
@@ -29561,7 +29561,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="559" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="4">
         <v>1849</v>
       </c>
@@ -29592,7 +29592,7 @@
       <c r="L559" s="6"/>
       <c r="M559" s="6"/>
     </row>
-    <row r="560" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="4">
         <v>1850</v>
       </c>
@@ -29625,7 +29625,7 @@
       <c r="L560" s="6"/>
       <c r="M560" s="6"/>
     </row>
-    <row r="561" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="4">
         <v>1851</v>
       </c>
@@ -29666,7 +29666,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="562" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="4">
         <v>1852</v>
       </c>
@@ -29697,7 +29697,7 @@
       <c r="L562" s="6"/>
       <c r="M562" s="6"/>
     </row>
-    <row r="563" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="4">
         <v>1853</v>
       </c>
@@ -29734,7 +29734,7 @@
       </c>
       <c r="M563" s="6"/>
     </row>
-    <row r="564" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="4">
         <v>1854</v>
       </c>
@@ -29767,7 +29767,7 @@
       <c r="L564" s="6"/>
       <c r="M564" s="6"/>
     </row>
-    <row r="565" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="4">
         <v>1855</v>
       </c>
@@ -29806,7 +29806,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="566" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="4">
         <v>1856</v>
       </c>
@@ -29847,7 +29847,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="567" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="4">
         <v>1857</v>
       </c>
@@ -29878,7 +29878,7 @@
       <c r="L567" s="6"/>
       <c r="M567" s="6"/>
     </row>
-    <row r="568" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="4">
         <v>1858</v>
       </c>
@@ -29919,7 +29919,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="569" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="4">
         <v>1859</v>
       </c>
@@ -29960,7 +29960,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="570" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="4">
         <v>1860</v>
       </c>
@@ -29999,7 +29999,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="571" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="4">
         <v>1861</v>
       </c>
@@ -30038,7 +30038,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="572" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="4">
         <v>1862</v>
       </c>
@@ -30069,7 +30069,7 @@
       <c r="L572" s="6"/>
       <c r="M572" s="6"/>
     </row>
-    <row r="573" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="4">
         <v>1863</v>
       </c>
@@ -30108,7 +30108,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="574" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="4">
         <v>1864</v>
       </c>
@@ -30145,7 +30145,7 @@
       </c>
       <c r="M574" s="6"/>
     </row>
-    <row r="575" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="4">
         <v>1865</v>
       </c>
@@ -30186,7 +30186,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="576" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="4">
         <v>1866</v>
       </c>
@@ -30227,7 +30227,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="577" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="4">
         <v>1867</v>
       </c>
@@ -30268,7 +30268,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="578" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="4">
         <v>1868</v>
       </c>
@@ -30309,7 +30309,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="579" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="4">
         <v>1869</v>
       </c>
@@ -30350,7 +30350,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="580" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="4">
         <v>1870</v>
       </c>
@@ -30391,7 +30391,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="581" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="4">
         <v>1871</v>
       </c>
@@ -30432,7 +30432,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="582" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="4">
         <v>1872</v>
       </c>
@@ -30471,7 +30471,7 @@
       </c>
       <c r="M582" s="6"/>
     </row>
-    <row r="583" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="4">
         <v>1873</v>
       </c>
@@ -30502,7 +30502,7 @@
       <c r="L583" s="6"/>
       <c r="M583" s="6"/>
     </row>
-    <row r="584" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="4">
         <v>1874</v>
       </c>
@@ -30533,7 +30533,7 @@
       <c r="L584" s="6"/>
       <c r="M584" s="6"/>
     </row>
-    <row r="585" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="4">
         <v>1875</v>
       </c>
@@ -30564,7 +30564,7 @@
       <c r="L585" s="6"/>
       <c r="M585" s="6"/>
     </row>
-    <row r="586" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="4">
         <v>1876</v>
       </c>
@@ -30595,7 +30595,7 @@
       <c r="L586" s="6"/>
       <c r="M586" s="6"/>
     </row>
-    <row r="587" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="4">
         <v>1877</v>
       </c>
@@ -30634,7 +30634,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="588" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="4">
         <v>1878</v>
       </c>
@@ -30673,7 +30673,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="589" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="4">
         <v>1879</v>
       </c>
@@ -30714,7 +30714,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="590" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="4">
         <v>1880</v>
       </c>
@@ -30753,7 +30753,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="591" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="4">
         <v>1881</v>
       </c>
@@ -30792,7 +30792,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="592" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="4">
         <v>1882</v>
       </c>
@@ -30823,7 +30823,7 @@
       <c r="L592" s="6"/>
       <c r="M592" s="6"/>
     </row>
-    <row r="593" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="4">
         <v>1883</v>
       </c>
@@ -30864,7 +30864,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="594" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="4">
         <v>1884</v>
       </c>
@@ -30903,7 +30903,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="595" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="4">
         <v>1885</v>
       </c>
@@ -30944,7 +30944,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="596" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="4">
         <v>1886</v>
       </c>
@@ -30985,7 +30985,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="597" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="4">
         <v>1887</v>
       </c>
@@ -31026,7 +31026,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="598" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="4">
         <v>1888</v>
       </c>
@@ -31067,7 +31067,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="599" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="4">
         <v>1889</v>
       </c>
@@ -31108,7 +31108,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="600" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="4">
         <v>1890</v>
       </c>
@@ -31145,7 +31145,7 @@
       </c>
       <c r="M600" s="6"/>
     </row>
-    <row r="601" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="4">
         <v>1891</v>
       </c>
@@ -31176,7 +31176,7 @@
       <c r="L601" s="6"/>
       <c r="M601" s="6"/>
     </row>
-    <row r="602" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="4">
         <v>1892</v>
       </c>
@@ -31207,7 +31207,7 @@
       <c r="L602" s="6"/>
       <c r="M602" s="6"/>
     </row>
-    <row r="603" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="4">
         <v>1893</v>
       </c>
@@ -31238,7 +31238,7 @@
       <c r="L603" s="6"/>
       <c r="M603" s="6"/>
     </row>
-    <row r="604" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="4">
         <v>1894</v>
       </c>
@@ -31277,7 +31277,7 @@
       </c>
       <c r="M604" s="6"/>
     </row>
-    <row r="605" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="4">
         <v>1895</v>
       </c>
@@ -31318,7 +31318,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="606" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="4">
         <v>1896</v>
       </c>
@@ -31357,7 +31357,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="607" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="4">
         <v>1897</v>
       </c>
@@ -31398,7 +31398,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="608" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="4">
         <v>1898</v>
       </c>
@@ -31437,7 +31437,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="609" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="4">
         <v>1899</v>
       </c>
@@ -31478,7 +31478,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="610" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="4">
         <v>1900</v>
       </c>
@@ -31517,7 +31517,7 @@
       </c>
       <c r="M610" s="6"/>
     </row>
-    <row r="611" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="4">
         <v>1901</v>
       </c>
@@ -31550,7 +31550,7 @@
       <c r="L611" s="6"/>
       <c r="M611" s="6"/>
     </row>
-    <row r="612" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="4">
         <v>1902</v>
       </c>
@@ -31583,7 +31583,7 @@
       <c r="L612" s="6"/>
       <c r="M612" s="6"/>
     </row>
-    <row r="613" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="4">
         <v>1903</v>
       </c>
@@ -31622,7 +31622,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="614" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="4">
         <v>1904</v>
       </c>
@@ -31661,7 +31661,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="615" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="4">
         <v>1905</v>
       </c>
@@ -31694,7 +31694,7 @@
       <c r="L615" s="6"/>
       <c r="M615" s="6"/>
     </row>
-    <row r="616" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="4">
         <v>1906</v>
       </c>
@@ -31727,7 +31727,7 @@
       <c r="L616" s="6"/>
       <c r="M616" s="6"/>
     </row>
-    <row r="617" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="4">
         <v>1907</v>
       </c>
@@ -31760,7 +31760,7 @@
       <c r="L617" s="6"/>
       <c r="M617" s="6"/>
     </row>
-    <row r="618" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="4">
         <v>1908</v>
       </c>
@@ -31793,7 +31793,7 @@
       <c r="L618" s="6"/>
       <c r="M618" s="6"/>
     </row>
-    <row r="619" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="4">
         <v>1909</v>
       </c>
@@ -31832,7 +31832,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="620" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="4">
         <v>1910</v>
       </c>
@@ -31871,7 +31871,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="621" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="4">
         <v>1911</v>
       </c>
@@ -31910,13 +31910,12 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="625" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="625" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F625" s="28" t="s">
         <v>2390</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E625" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L621">
     <sortCondition ref="A2:A621"/>
   </sortState>
@@ -31937,13 +31936,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="166.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="166.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="11" t="s">
         <v>2374</v>
@@ -31955,7 +31954,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>1422</v>
       </c>
@@ -31964,212 +31963,212 @@
         <v>03471452351,03474276521,03474493640,03474714005,03474738356,03475016500,03475216856,03482028172,03484059754,03484375528,03484872653,03486769976,03487588506,03490169576,03490415532,03490863903,03491444513,03491487521,03494329007,03494927404,03496658220,03498462106,03554741994,032084533065,03154027327,03004709084,03324115672,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>2347</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>2309</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>1923</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>1632</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>2246</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>1899</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>2196</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>1491</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>1931</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>1929</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>2009</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>1901</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>1954</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>1962</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>2049</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>1979</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>1708</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>2192</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>1756</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>2001</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>2077</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>2370</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>2371</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>2372</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="22"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="22"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="22"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="22"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="22"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="22"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="22"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="22"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="22"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="22"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="22"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="16"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="16"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
     </row>
   </sheetData>
